--- a/Students/30422/Lab30422.xlsx
+++ b/Students/30422/Lab30422.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="48">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Final mark</t>
+  </si>
+  <si>
+    <t>Bonus points</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="P3" sqref="P3:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1106,7 @@
     <col min="3" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" customWidth="1"/>
     <col min="11" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" customWidth="1"/>
     <col min="19" max="19" width="27" customWidth="1"/>
     <col min="20" max="20" width="33.28515625" customWidth="1"/>
@@ -1157,6 +1161,9 @@
       </c>
       <c r="P1" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>44</v>
@@ -1234,10 +1241,18 @@
       <c r="L3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q3">
         <v>0.25</v>
       </c>
@@ -1291,10 +1306,18 @@
       <c r="L4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q4">
         <v>0.14000000000000001</v>
       </c>
@@ -1346,10 +1369,18 @@
       <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q5">
         <v>0.1</v>
       </c>
@@ -1403,10 +1434,18 @@
       <c r="L6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q6">
         <v>0.15</v>
       </c>
@@ -1460,10 +1499,18 @@
       <c r="L7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q7">
         <v>0.05</v>
       </c>
@@ -1517,10 +1564,18 @@
       <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q8">
         <v>0.05</v>
       </c>
@@ -1572,10 +1627,18 @@
       <c r="L9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q9">
         <v>0.02</v>
       </c>
@@ -1629,10 +1692,18 @@
       <c r="L10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q10">
         <v>0.12</v>
       </c>
@@ -1686,10 +1757,18 @@
       <c r="L11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q11">
         <v>1.4</v>
       </c>
@@ -1741,10 +1820,18 @@
       <c r="L12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q12">
         <v>0.12</v>
       </c>
@@ -1796,10 +1883,18 @@
       <c r="L13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q13">
         <v>0.13</v>
       </c>
@@ -1853,10 +1948,18 @@
       <c r="L14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q14">
         <v>0.5</v>
       </c>
@@ -1910,10 +2013,18 @@
       <c r="L15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q15">
         <v>0.24</v>
       </c>
@@ -1965,10 +2076,18 @@
       <c r="L16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q16">
         <v>0.1</v>
       </c>
@@ -2022,10 +2141,18 @@
       <c r="L17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q17">
         <v>0.13</v>
       </c>
@@ -2077,10 +2204,18 @@
       <c r="L18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q18">
         <v>0.18</v>
       </c>
@@ -2134,10 +2269,18 @@
       <c r="L19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q19">
         <v>1.2</v>
       </c>
@@ -2185,10 +2328,18 @@
       <c r="L20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R20" s="4">
         <v>1</v>
       </c>
@@ -2239,10 +2390,18 @@
       <c r="L21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q21">
         <v>1</v>
       </c>
@@ -2296,10 +2455,18 @@
       <c r="L22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q22">
         <v>1.4</v>
       </c>
@@ -2353,10 +2520,18 @@
       <c r="L23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q23">
         <v>0.21</v>
       </c>
@@ -2408,10 +2583,18 @@
       <c r="L24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q24">
         <v>0.2</v>
       </c>
@@ -2465,10 +2648,18 @@
       <c r="L25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q25">
         <v>0.05</v>
       </c>
@@ -2522,10 +2713,18 @@
       <c r="L26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q26">
         <v>0.25</v>
       </c>

--- a/Students/30422/Lab30422.xlsx
+++ b/Students/30422/Lab30422.xlsx
@@ -727,7 +727,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -740,11 +740,16 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1101,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P26"/>
+      <selection activeCell="U26" sqref="Q1:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,19 +1167,19 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1199,12 +1204,13 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="R2" s="4">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="8">
         <v>4</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1253,20 +1259,20 @@
       <c r="P3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="11">
         <v>0.25</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="9">
         <v>10</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="9">
         <v>8</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="9">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
         <v>9.25</v>
       </c>
-      <c r="U3" s="10" t="str">
+      <c r="U3" s="9" t="str">
         <f>IF(AND(R3&gt;5, S3&gt;5), "pass", "fail")</f>
         <v>pass</v>
       </c>
@@ -1318,20 +1324,20 @@
       <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="8">
         <v>9.5</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="8">
         <v>5.5</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <f>IF((R4+S4)/2 + Q4 &gt; 10, 10, (R4+S4)/2 + Q4)</f>
         <v>7.64</v>
       </c>
-      <c r="U4" s="9" t="str">
+      <c r="U4" s="8" t="str">
         <f t="shared" ref="U4:U26" si="0">IF(AND(R4&gt;5, S4&gt;5), "pass", "fail")</f>
         <v>pass</v>
       </c>
@@ -1381,20 +1387,20 @@
       <c r="P5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="11">
         <v>0.1</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="9">
         <v>9.5</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="9">
         <v>5.5</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="9">
         <f t="shared" ref="T5:T26" si="1">IF((R5+S5)/2 + Q5 &gt; 10, 10, (R5+S5)/2 + Q5)</f>
         <v>7.6</v>
       </c>
-      <c r="U5" s="10" t="str">
+      <c r="U5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -1446,20 +1452,20 @@
       <c r="P6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="11">
         <v>0.15</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="8">
         <v>9</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="8">
         <v>6.75</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="8">
         <f t="shared" si="1"/>
         <v>8.0250000000000004</v>
       </c>
-      <c r="U6" s="9" t="str">
+      <c r="U6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -1511,20 +1517,20 @@
       <c r="P7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="11">
         <v>0.05</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="9">
         <v>1</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="9">
         <v>2.5</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="U7" s="10" t="str">
+      <c r="U7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
@@ -1576,20 +1582,20 @@
       <c r="P8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="11">
         <v>0.05</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="8">
         <v>10</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <v>1</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="8">
         <f t="shared" si="1"/>
         <v>5.55</v>
       </c>
-      <c r="U8" s="9" t="str">
+      <c r="U8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
@@ -1639,20 +1645,20 @@
       <c r="P9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="11">
         <v>0.02</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="9">
         <v>9.25</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="9">
         <v>4.2</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <f t="shared" si="1"/>
         <v>6.7449999999999992</v>
       </c>
-      <c r="U9" s="10" t="str">
+      <c r="U9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
@@ -1704,20 +1710,20 @@
       <c r="P10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="11">
         <v>0.12</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="8">
         <v>10</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="8">
         <v>8.5</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="8">
         <f t="shared" si="1"/>
         <v>9.3699999999999992</v>
       </c>
-      <c r="U10" s="9" t="str">
+      <c r="U10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -1769,20 +1775,20 @@
       <c r="P11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="11">
         <v>1.4</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="9">
         <v>10</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U11" s="10" t="str">
+      <c r="U11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -1832,20 +1838,20 @@
       <c r="P12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="11">
         <v>0.12</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="8">
         <v>1</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="8">
         <v>3</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <f t="shared" si="1"/>
         <v>2.12</v>
       </c>
-      <c r="U12" s="9" t="str">
+      <c r="U12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
@@ -1895,20 +1901,20 @@
       <c r="P13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="11">
         <v>0.13</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="9">
         <v>1</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="9">
         <v>5.5</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="9">
         <f t="shared" si="1"/>
         <v>3.38</v>
       </c>
-      <c r="U13" s="10" t="str">
+      <c r="U13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
@@ -1960,20 +1966,20 @@
       <c r="P14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="11">
         <v>0.5</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="8">
         <v>10</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="8">
         <v>8</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="U14" s="9" t="str">
+      <c r="U14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2025,20 +2031,20 @@
       <c r="P15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="11">
         <v>0.24</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="9">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="9">
         <v>8.75</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="9">
         <f t="shared" si="1"/>
         <v>9.6150000000000002</v>
       </c>
-      <c r="U15" s="10" t="str">
+      <c r="U15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2088,20 +2094,20 @@
       <c r="P16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="11">
         <v>0.1</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="8">
         <v>6.5</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="8">
         <v>8.9</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="8">
         <f t="shared" si="1"/>
         <v>7.8</v>
       </c>
-      <c r="U16" s="9" t="str">
+      <c r="U16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2153,20 +2159,20 @@
       <c r="P17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="11">
         <v>0.13</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="9">
         <v>10</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="9">
         <v>7</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="9">
         <f t="shared" si="1"/>
         <v>8.6300000000000008</v>
       </c>
-      <c r="U17" s="10" t="str">
+      <c r="U17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2216,20 +2222,20 @@
       <c r="P18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="11">
         <v>0.18</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="8">
         <v>9</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="8">
         <v>8</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <f t="shared" si="1"/>
         <v>8.68</v>
       </c>
-      <c r="U18" s="9" t="str">
+      <c r="U18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2281,20 +2287,20 @@
       <c r="P19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="11">
         <v>1.2</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="9">
         <v>10</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="9">
         <v>8</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U19" s="10" t="str">
+      <c r="U19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2340,17 +2346,18 @@
       <c r="P20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R20" s="4">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="8">
         <v>1</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="8">
         <v>1</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U20" s="9" t="str">
+      <c r="U20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
@@ -2402,20 +2409,20 @@
       <c r="P21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="11">
         <v>1</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="8">
         <v>10</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="8">
         <v>8.5</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U21" s="9" t="str">
+      <c r="U21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2467,20 +2474,20 @@
       <c r="P22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="11">
         <v>1.4</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="9">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="9">
         <v>8.25</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U22" s="10" t="str">
+      <c r="U22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2532,20 +2539,20 @@
       <c r="P23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="11">
         <v>0.21</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="8">
         <v>10</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="8">
         <v>8.25</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <f t="shared" si="1"/>
         <v>9.3350000000000009</v>
       </c>
-      <c r="U23" s="9" t="str">
+      <c r="U23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2595,20 +2602,20 @@
       <c r="P24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="11">
         <v>0.2</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="9">
         <v>10</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="9">
         <v>8.75</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="9">
         <f t="shared" si="1"/>
         <v>9.5749999999999993</v>
       </c>
-      <c r="U24" s="10" t="str">
+      <c r="U24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>
@@ -2660,20 +2667,20 @@
       <c r="P25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="11">
         <v>0.05</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="8">
         <v>8</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="8">
         <v>2</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="8">
         <f t="shared" si="1"/>
         <v>5.05</v>
       </c>
-      <c r="U25" s="9" t="str">
+      <c r="U25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fail</v>
       </c>
@@ -2725,20 +2732,20 @@
       <c r="P26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="11">
         <v>0.25</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="9">
         <v>10</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="9">
         <f t="shared" si="1"/>
         <v>9.65</v>
       </c>
-      <c r="U26" s="10" t="str">
+      <c r="U26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pass</v>
       </c>

--- a/Students/30422/Lab30422.xlsx
+++ b/Students/30422/Lab30422.xlsx
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U26" sqref="Q1:U26"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="Q3" s="11">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R3" s="9">
         <v>10</v>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="T3" s="9">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="U3" s="9" t="str">
         <f>IF(AND(R3&gt;5, S3&gt;5), "pass", "fail")</f>

--- a/Students/30422/Lab30422.xlsx
+++ b/Students/30422/Lab30422.xlsx
@@ -727,7 +727,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,9 +747,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1101,7 +1098,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,13 +1201,12 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="8">
+      <c r="R2" s="4">
         <v>4</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1259,16 +1255,16 @@
       <c r="P3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3">
         <v>1.25</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="3">
         <v>10</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="3">
         <v>8</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="3">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
         <v>10</v>
       </c>
@@ -1324,13 +1320,13 @@
       <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="4">
         <v>9.5</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="4">
         <v>5.5</v>
       </c>
       <c r="T4" s="8">
@@ -1387,16 +1383,16 @@
       <c r="P5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5">
         <v>0.1</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="3">
         <v>9.5</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="3">
         <v>5.5</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="3">
         <f t="shared" ref="T5:T26" si="1">IF((R5+S5)/2 + Q5 &gt; 10, 10, (R5+S5)/2 + Q5)</f>
         <v>7.6</v>
       </c>
@@ -1452,16 +1448,16 @@
       <c r="P6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6">
         <v>0.15</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="4">
         <v>9</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="4">
         <v>6.75</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="4">
         <f t="shared" si="1"/>
         <v>8.0250000000000004</v>
       </c>
@@ -1517,18 +1513,18 @@
       <c r="P7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7">
         <v>0.05</v>
       </c>
-      <c r="R7" s="9">
-        <v>1</v>
-      </c>
-      <c r="S7" s="9">
-        <v>2.5</v>
+      <c r="R7" s="3">
+        <v>8</v>
+      </c>
+      <c r="S7" s="3">
+        <v>3</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>5.55</v>
       </c>
       <c r="U7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1582,22 +1578,22 @@
       <c r="P8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8">
         <v>0.05</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="4">
         <v>10</v>
       </c>
       <c r="S8" s="8">
-        <v>1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>5.55</v>
+        <v>7.6</v>
       </c>
       <c r="U8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1645,18 +1641,18 @@
       <c r="P9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9">
         <v>0.02</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="3">
         <v>9.25</v>
       </c>
-      <c r="S9" s="9">
-        <v>4.2</v>
+      <c r="S9" s="3">
+        <v>4.5</v>
       </c>
       <c r="T9" s="9">
         <f t="shared" si="1"/>
-        <v>6.7449999999999992</v>
+        <v>6.8949999999999996</v>
       </c>
       <c r="U9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1710,13 +1706,13 @@
       <c r="P10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10">
         <v>0.12</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="4">
         <v>10</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="4">
         <v>8.5</v>
       </c>
       <c r="T10" s="8">
@@ -1775,13 +1771,13 @@
       <c r="P11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11">
         <v>1.4</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="3">
         <v>10</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="3">
         <v>8.6999999999999993</v>
       </c>
       <c r="T11" s="9">
@@ -1838,13 +1834,13 @@
       <c r="P12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12">
         <v>0.12</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="4">
         <v>1</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="4">
         <v>3</v>
       </c>
       <c r="T12" s="8">
@@ -1901,22 +1897,22 @@
       <c r="P13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13">
         <v>0.13</v>
       </c>
-      <c r="R13" s="9">
-        <v>1</v>
-      </c>
-      <c r="S13" s="9">
+      <c r="R13" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="S13" s="3">
         <v>5.5</v>
       </c>
       <c r="T13" s="9">
         <f t="shared" si="1"/>
-        <v>3.38</v>
+        <v>7.5049999999999999</v>
       </c>
       <c r="U13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1966,13 +1962,13 @@
       <c r="P14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14">
         <v>0.5</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="4">
         <v>10</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="4">
         <v>8</v>
       </c>
       <c r="T14" s="8">
@@ -2031,13 +2027,13 @@
       <c r="P15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15">
         <v>0.24</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="3">
         <v>10</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="3">
         <v>8.75</v>
       </c>
       <c r="T15" s="9">
@@ -2094,13 +2090,13 @@
       <c r="P16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16">
         <v>0.1</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="4">
         <v>6.5</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="4">
         <v>8.9</v>
       </c>
       <c r="T16" s="8">
@@ -2159,13 +2155,13 @@
       <c r="P17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17">
         <v>0.13</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="3">
         <v>10</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="3">
         <v>7</v>
       </c>
       <c r="T17" s="9">
@@ -2222,13 +2218,13 @@
       <c r="P18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18">
         <v>0.18</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="4">
         <v>9</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="4">
         <v>8</v>
       </c>
       <c r="T18" s="8">
@@ -2287,13 +2283,13 @@
       <c r="P19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19">
         <v>1.2</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="3">
         <v>10</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="3">
         <v>8</v>
       </c>
       <c r="T19" s="9">
@@ -2346,11 +2342,10 @@
       <c r="P20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="8">
+      <c r="R20" s="4">
         <v>1</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20" s="8">
@@ -2409,13 +2404,13 @@
       <c r="P21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="4">
         <v>10</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="4">
         <v>8.5</v>
       </c>
       <c r="T21" s="8">
@@ -2474,13 +2469,13 @@
       <c r="P22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22">
         <v>1.4</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="3">
         <v>10</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="3">
         <v>8.25</v>
       </c>
       <c r="T22" s="9">
@@ -2539,13 +2534,13 @@
       <c r="P23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23">
         <v>0.21</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="4">
         <v>10</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="4">
         <v>8.25</v>
       </c>
       <c r="T23" s="8">
@@ -2602,13 +2597,13 @@
       <c r="P24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24">
         <v>0.2</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="3">
         <v>10</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="3">
         <v>8.75</v>
       </c>
       <c r="T24" s="9">
@@ -2667,18 +2662,18 @@
       <c r="P25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25">
         <v>0.05</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="4">
         <v>8</v>
       </c>
-      <c r="S25" s="8">
-        <v>2</v>
-      </c>
-      <c r="T25" s="8">
+      <c r="S25" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="T25" s="4">
         <f t="shared" si="1"/>
-        <v>5.05</v>
+        <v>6.2</v>
       </c>
       <c r="U25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2732,16 +2727,16 @@
       <c r="P26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26">
         <v>0.25</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="3">
         <v>10</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="3">
         <f t="shared" si="1"/>
         <v>9.65</v>
       </c>
